--- a/src/main/webapp/template/excel/monthlyReportStatistics.xlsx
+++ b/src/main/webapp/template/excel/monthlyReportStatistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\Workspace\yihg-erp-web\src\main\webapp\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\Workspace1124\erp\yihg-erp-web\src\main\webapp\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,107 +28,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>团号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>计调</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>月报表统计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>业务类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>成人数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>儿童数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>客服</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>应收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>未收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>应付</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已付</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>产品名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>客人信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>未付</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>毛利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>供应商名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>商家名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其他应收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其他已收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其他未收</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出团日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>离团日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -259,14 +271,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -275,14 +287,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,7 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,136 +597,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="21" width="9.42578125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="22" width="9.42578125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-    </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+    </row>
+    <row r="2" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -724,8 +743,9 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -747,8 +767,9 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -770,8 +791,9 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -793,8 +815,9 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -816,8 +839,9 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -839,8 +863,9 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -862,8 +887,9 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -885,8 +911,9 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -908,8 +935,9 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -931,8 +959,9 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -954,8 +983,9 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -977,8 +1007,9 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1000,8 +1031,9 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1023,8 +1055,9 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1046,8 +1079,9 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1069,8 +1103,9 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1092,8 +1127,9 @@
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1115,8 +1151,9 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1138,8 +1175,9 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1161,8 +1199,9 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1184,12 +1223,13 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="96" verticalDpi="96" r:id="rId1"/>
 </worksheet>
@@ -1203,7 +1243,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1216,7 +1256,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1229,7 +1269,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1242,7 +1282,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>